--- a/data/melee.xlsx
+++ b/data/melee.xlsx
@@ -510,7 +510,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -554,7 +554,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3">
         <v>50</v>

--- a/data/melee.xlsx
+++ b/data/melee.xlsx
@@ -1,16 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Repos/savagewasteland/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2A045C-F342-6243-8C41-E4270F9E7A2F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31760" yWindow="7000" windowWidth="19000" windowHeight="15160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="weapons.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Qty</t>
   </si>
@@ -91,12 +103,39 @@
   </si>
   <si>
     <t>d8+Str</t>
+  </si>
+  <si>
+    <t>Pipe Wrench</t>
+  </si>
+  <si>
+    <t>Power Fist</t>
+  </si>
+  <si>
+    <t>Shishkebab</t>
+  </si>
+  <si>
+    <t>Deathclaw Gauntlet</t>
+  </si>
+  <si>
+    <t>On raise, target must make strength test v fighting roll, or be knocked prone.</t>
+  </si>
+  <si>
+    <t>On raise, target is on fire.  (Additional 1d6 damage at start of turn until 1 is rolled.)</t>
+  </si>
+  <si>
+    <t>d10+Str+Fire</t>
+  </si>
+  <si>
+    <t>d10</t>
+  </si>
+  <si>
+    <t>d12+Str</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -182,6 +221,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -506,14 +553,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" style="3" customWidth="1"/>
@@ -523,7 +570,7 @@
     <col min="6" max="7" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -549,12 +596,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3">
         <v>50</v>
@@ -572,12 +619,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3">
         <v>20</v>
@@ -595,12 +642,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3">
         <v>30</v>
@@ -615,12 +662,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3">
         <v>60</v>
@@ -641,12 +688,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="5" customFormat="1">
+    <row r="6" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="4">
         <v>100</v>
@@ -663,6 +710,95 @@
       </c>
       <c r="H6" s="5" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>800</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>200</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>75</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/melee.xlsx
+++ b/data/melee.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Repos/savagewasteland/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2A045C-F342-6243-8C41-E4270F9E7A2F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F9464A-13CC-8843-8426-16234FF7DF50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -557,7 +557,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -667,7 +667,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3">
         <v>60</v>
@@ -693,7 +693,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="4">
         <v>100</v>
@@ -717,7 +717,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3">
         <v>20</v>
